--- a/Contributions.xlsx
+++ b/Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://setuo365-my.sharepoint.com/personal/c00296036_setu_ie/Documents/Documents/Year 2/SystemAnalysisTesing/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{61EA390F-492F-490D-95F8-BDC58D722CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CBE008-FCA6-45D9-98AA-63C68FB0144B}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="114_{BFB36937-78C6-46C4-B1F6-924D6BE8DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D3C60B-C842-4602-A510-F181E1642885}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FFCCCC7A-9267-45ED-8627-AB0340B1B9EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{FFCCCC7A-9267-45ED-8627-AB0340B1B9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributions" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Persons</t>
-  </si>
-  <si>
     <t>Work</t>
   </si>
   <si>
@@ -67,6 +66,108 @@
   </si>
   <si>
     <t>Use case diagram final</t>
+  </si>
+  <si>
+    <t>User stories final</t>
+  </si>
+  <si>
+    <t>Scenario specifications - booking &amp; payment, book room, browse room, book gym</t>
+  </si>
+  <si>
+    <t>Darian</t>
+  </si>
+  <si>
+    <t>Scenario specification reserve table</t>
+  </si>
+  <si>
+    <t>Scenario specification book wedding</t>
+  </si>
+  <si>
+    <t>Scenario specification book spa</t>
+  </si>
+  <si>
+    <t>Scenario specification - view availability</t>
+  </si>
+  <si>
+    <t>Milo</t>
+  </si>
+  <si>
+    <t>Scenario specification view menu, book conference</t>
+  </si>
+  <si>
+    <t>Initial class diagram</t>
+  </si>
+  <si>
+    <t>Updated class diagram and inserted it into working document</t>
+  </si>
+  <si>
+    <t>Sequence diagram booking &amp; payment</t>
+  </si>
+  <si>
+    <t>Alternative class diagram</t>
+  </si>
+  <si>
+    <t>Sequence diagram browse rooms</t>
+  </si>
+  <si>
+    <t>Sequence diagram book room, reserve table</t>
+  </si>
+  <si>
+    <t>Sequence diagram book gym</t>
+  </si>
+  <si>
+    <t>Message analysis tables - browse rooms, book room, reserve table, book gym</t>
+  </si>
+  <si>
+    <t>Sequence diagram purchase pass</t>
+  </si>
+  <si>
+    <t>Sequence diagram book spa</t>
+  </si>
+  <si>
+    <t>Sequence diagram book wedding</t>
+  </si>
+  <si>
+    <t>Message analysis tables - booking &amp; payment, purchase pass, book spa, book wedding</t>
+  </si>
+  <si>
+    <t>Sequence diagram book conference, view availability, view menu. Pasted all sequence diagrams into working document</t>
+  </si>
+  <si>
+    <t>Test case booking &amp; payment</t>
+  </si>
+  <si>
+    <t>Person(s)</t>
+  </si>
+  <si>
+    <t>Finished message analysis tables and pasted them into working document</t>
+  </si>
+  <si>
+    <t>Test case purchase pass, book spa, book wedding; Book wedding steps rework</t>
+  </si>
+  <si>
+    <t>Test case browse rooms, book room, reserve table, book gym</t>
+  </si>
+  <si>
+    <t>Test case book conference, view availability, view menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated sequence diagrams book room, reserve table, book gym, book conference, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated message analysis tables book room, reserve table, book gym, book conference, </t>
+  </si>
+  <si>
+    <t>Updated message analysis tables browse rooms</t>
+  </si>
+  <si>
+    <t>Final editing and formatting to document and diagrams throughout</t>
+  </si>
+  <si>
+    <t>Edited scenarios, sequence diagrams and message analysis tables</t>
+  </si>
+  <si>
+    <t>Darian, Milo, Kyle</t>
   </si>
 </sst>
 </file>
@@ -76,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +189,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBD7C5F-4B26-4D03-82B0-6A07C0F8250E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,10 +567,10 @@
         <v>45573</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,10 +578,10 @@
         <v>45574</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,10 +589,10 @@
         <v>45575</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,10 +600,10 @@
         <v>45579</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,13 +611,344 @@
         <v>45580</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45615</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45619</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
